--- a/GESTION_ECOLOGIQUE/MESURE_AMENAGEMENT_GESTION.xlsx
+++ b/GESTION_ECOLOGIQUE/MESURE_AMENAGEMENT_GESTION.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\GESTION_ECOLOGIQUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CF0B25-DA72-4D6E-A45D-7B2965AD3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056A273-D695-41EA-A854-DC499A7F0598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="MSR_AME_GEST" sheetId="1" r:id="rId1"/>
+    <sheet name="LEGEND" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Limiter l'artificialisation des sols</t>
   </si>
@@ -43,6 +44,12 @@
   </si>
   <si>
     <t>Mise en place d'éléments paysagers favorisant la biodiversité (haie, mare, pierrier etc…)</t>
+  </si>
+  <si>
+    <t>Maintien d'un couvert végétal pour l'érosion des sols</t>
+  </si>
+  <si>
+    <t>Maintien d'un couvert végétal pour favoriser l'infiltration de l'eau</t>
   </si>
 </sst>
 </file>
@@ -360,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -382,23 +389,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEA786C-732E-4F93-B1BF-1186DB78CBE0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GESTION_ECOLOGIQUE/MESURE_AMENAGEMENT_GESTION.xlsx
+++ b/GESTION_ECOLOGIQUE/MESURE_AMENAGEMENT_GESTION.xlsx
@@ -1,45 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\GESTION_ECOLOGIQUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056A273-D695-41EA-A854-DC499A7F0598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2AEA03-6ECD-4094-A183-BAD850B0FA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSR_AME_GEST" sheetId="1" r:id="rId1"/>
     <sheet name="LEGEND" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Limiter l'artificialisation des sols</t>
   </si>
   <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>MESURE</t>
-  </si>
-  <si>
-    <t>Intégrer un maximum de végétation au projet</t>
-  </si>
-  <si>
     <t>Plantation d'espèces locales</t>
   </si>
   <si>
@@ -50,16 +50,80 @@
   </si>
   <si>
     <t>Maintien d'un couvert végétal pour favoriser l'infiltration de l'eau</t>
+  </si>
+  <si>
+    <t>Adopter une gestion favorable à la biodiversité pour les bords de route (fauche tardive et raisonnée, gestion différentiée)</t>
+  </si>
+  <si>
+    <t>http://lapierredesaintmartin.org/nature/fauche-tardive-et-raisonnee/</t>
+  </si>
+  <si>
+    <t>lien1</t>
+  </si>
+  <si>
+    <t>lien2</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>mesure</t>
+  </si>
+  <si>
+    <t>https://www.vegetal-local.fr/</t>
+  </si>
+  <si>
+    <t>Intégrer un maximum de végétation au projet. Utiliser des essences locales. S’appuyer sur des labels reconnus tel que Végétal local.</t>
+  </si>
+  <si>
+    <t>https://www.blue-eco-formations.com/gestion-differenciee-espaces-verts/</t>
+  </si>
+  <si>
+    <t>https://www.coeurdeforet.com/post/le-geste-du-printemps-le-d%C3%A9broussaillage</t>
+  </si>
+  <si>
+    <t>Les éventuels débroussaillages, coupes, et tailles doivent être fait entre août et fin mars.</t>
+  </si>
+  <si>
+    <t>https://www.biodiversite-auvergne-rhone-alpes.fr/agir-en-region/eee/</t>
+  </si>
+  <si>
+    <t>Prendre des précautions contre la multiplication des espèces exotiques envahissantes en particulier lors d’ouvertures/perturbations du milieu.</t>
+  </si>
+  <si>
+    <t>https://invmed.fr/src/home/index.php</t>
+  </si>
+  <si>
+    <t>Maintenir un réseau de haies riches et fonctionnelles</t>
+  </si>
+  <si>
+    <t>https://labelhaie.fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,13 +146,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,55 +441,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="75.7265625" customWidth="1"/>
-    <col min="2" max="2" width="68.1796875" customWidth="1"/>
+    <col min="1" max="1" width="66.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.54296875" customWidth="1"/>
+    <col min="4" max="4" width="53.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{4A8D1B66-BB5B-4F12-9D1D-214CC8819845}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{D658D3B0-F642-47BE-8BDC-BD4EE83F7127}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{80248799-A1C7-4F7F-9249-DAE7546EED6E}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{6627DA4E-04DF-4DBF-AC87-2DD9D903B266}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{D8467300-0495-45DD-BBB4-D8B3B9EE1DB7}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{1E90DC94-93CB-4923-8C54-51327A91CA85}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{1D2E9AAC-A43E-4FFE-B55A-3669631407F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/GESTION_ECOLOGIQUE/MESURE_AMENAGEMENT_GESTION.xlsx
+++ b/GESTION_ECOLOGIQUE/MESURE_AMENAGEMENT_GESTION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTDA-029\Documents\GitHub\BDD_FLORE_CONSTRUCT\GESTION_ECOLOGIQUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\BDD_FLORE_CONSTRUCT\GESTION_ECOLOGIQUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2AEA03-6ECD-4094-A183-BAD850B0FA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8288F-8289-4C2A-B34B-0D5E318F8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSR_AME_GEST" sheetId="1" r:id="rId1"/>
@@ -441,21 +441,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.26953125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="41.54296875" customWidth="1"/>
-    <col min="4" max="4" width="53.90625" customWidth="1"/>
+    <col min="1" max="1" width="66.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -469,27 +469,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -500,7 +500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -511,7 +511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -519,7 +519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -530,13 +530,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -560,7 +563,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GESTION_ECOLOGIQUE/MESURE_AMENAGEMENT_GESTION.xlsx
+++ b/GESTION_ECOLOGIQUE/MESURE_AMENAGEMENT_GESTION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\BDD_FLORE_CONSTRUCT\GESTION_ECOLOGIQUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8288F-8289-4C2A-B34B-0D5E318F8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61806DB-882B-4D96-A128-1D15801DEDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A13:A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
